--- a/biology/Zoologie/Amphibamus/Amphibamus.xlsx
+++ b/biology/Zoologie/Amphibamus/Amphibamus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphibamus grandiceps
-Amphibamus est un genre éteint d'amphibiens temnospondyles appartenant à la famille des amphibamidés. Il a vécu en Europe et en Amérique du Nord au cours du Carbonifère (Pennsylvanien moyen) il y a environ entre 315 et 307 Ma (millions d'années)[1].
+Amphibamus est un genre éteint d'amphibiens temnospondyles appartenant à la famille des amphibamidés. Il a vécu en Europe et en Amérique du Nord au cours du Carbonifère (Pennsylvanien moyen) il y a environ entre 315 et 307 Ma (millions d'années).
 Une seule espèce est rattachée au genre : Amphibamus grandiceps.
-Le nom de genre Amphibamus fait allusion aux deux modes de locomotion de l'animal, la nage à cause de sa queue en forme de rame, et la marche à cause de ses longs doigts munis de griffes[2], du grec ancien ἀμφί (amphí) « tous les deux » et -βάμων (-bámōn) « qui se déplace » ou βᾶμα (bâma) « jambe ».
+Le nom de genre Amphibamus fait allusion aux deux modes de locomotion de l'animal, la nage à cause de sa queue en forme de rame, et la marche à cause de ses longs doigts munis de griffes, du grec ancien ἀμφί (amphí) « tous les deux » et -βάμων (-bámōn) « qui se déplace » ou βᾶμα (bâma) « jambe ».
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet amphibien avait une longueur d'environ 20 centimètres ; il est considéré comme ayant été proche de l'ascendance des amphibiens modernes.
 </t>
@@ -545,7 +559,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ci-dessous un cladogramme montrant les relations phylogénétiques de Amphibamus, d'après Berman et al. en 2010[réf. nécessaire] :
 </t>
